--- a/cam_modified_sine.xlsx
+++ b/cam_modified_sine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Pressure_Angle_deg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Cam_X_mm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cam_Y_mm</t>
         </is>
@@ -495,9 +500,12 @@
         <v>11722.447792</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>40</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,10 +529,13 @@
         <v>11466.284183</v>
       </c>
       <c r="G3" t="n">
-        <v>39.99658</v>
+        <v>0.53</v>
       </c>
       <c r="H3" t="n">
-        <v>0.69814</v>
+        <v>39.9954</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.78992</v>
       </c>
     </row>
     <row r="4">
@@ -547,10 +558,13 @@
         <v>10708.988933</v>
       </c>
       <c r="G4" t="n">
-        <v>39.99687</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39672</v>
+        <v>39.99079</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.75951</v>
       </c>
     </row>
     <row r="5">
@@ -573,10 +587,13 @@
         <v>9483.65948</v>
       </c>
       <c r="G5" t="n">
-        <v>40.01603</v>
+        <v>4.58</v>
       </c>
       <c r="H5" t="n">
-        <v>2.09715</v>
+        <v>40.00613</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8963</v>
       </c>
     </row>
     <row r="6">
@@ -599,10 +616,13 @@
         <v>7843.848599</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06776</v>
+        <v>7.89</v>
       </c>
       <c r="H6" t="n">
-        <v>2.80181</v>
+        <v>40.06641</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.17727</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +645,13 @@
         <v>5861.223896</v>
       </c>
       <c r="G7" t="n">
-        <v>40.16369</v>
+        <v>11.79</v>
       </c>
       <c r="H7" t="n">
-        <v>3.51387</v>
+        <v>40.19576</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.56759</v>
       </c>
     </row>
     <row r="8">
@@ -651,10 +674,13 @@
         <v>3622.435584</v>
       </c>
       <c r="G8" t="n">
-        <v>40.31281</v>
+        <v>16.02</v>
       </c>
       <c r="H8" t="n">
-        <v>4.23705</v>
+        <v>40.41067</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.02288</v>
       </c>
     </row>
     <row r="9">
@@ -677,10 +703,13 @@
         <v>1225.329453</v>
       </c>
       <c r="G9" t="n">
-        <v>40.52106</v>
+        <v>20.31</v>
       </c>
       <c r="H9" t="n">
-        <v>4.97536</v>
+        <v>40.71503</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.49579</v>
       </c>
     </row>
     <row r="10">
@@ -703,10 +732,13 @@
         <v>-136.369176</v>
       </c>
       <c r="G10" t="n">
-        <v>40.79108</v>
+        <v>24.38</v>
       </c>
       <c r="H10" t="n">
-        <v>5.73281</v>
+        <v>41.09976</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.94502</v>
       </c>
     </row>
     <row r="11">
@@ -729,10 +761,13 @@
         <v>-408.443151</v>
       </c>
       <c r="G11" t="n">
-        <v>41.12264</v>
+        <v>28.12</v>
       </c>
       <c r="H11" t="n">
-        <v>6.51319</v>
+        <v>41.551</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.35249</v>
       </c>
     </row>
     <row r="12">
@@ -755,10 +790,13 @@
         <v>-678.527232</v>
       </c>
       <c r="G12" t="n">
-        <v>41.51442</v>
+        <v>31.49</v>
       </c>
       <c r="H12" t="n">
-        <v>7.32011</v>
+        <v>42.05756</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.71966</v>
       </c>
     </row>
     <row r="13">
@@ -781,10 +819,13 @@
         <v>-945.305597</v>
       </c>
       <c r="G13" t="n">
-        <v>41.9646</v>
+        <v>34.5</v>
       </c>
       <c r="H13" t="n">
-        <v>8.15709</v>
+        <v>42.60993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.05189</v>
       </c>
     </row>
     <row r="14">
@@ -807,10 +848,13 @@
         <v>-1207.478528</v>
       </c>
       <c r="G14" t="n">
-        <v>42.47087</v>
+        <v>37.15</v>
       </c>
       <c r="H14" t="n">
-        <v>9.02746</v>
+        <v>43.20041</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.35657</v>
       </c>
     </row>
     <row r="15">
@@ -833,10 +877,13 @@
         <v>-1463.768745</v>
       </c>
       <c r="G15" t="n">
-        <v>43.03046</v>
+        <v>39.47</v>
       </c>
       <c r="H15" t="n">
-        <v>9.93436</v>
+        <v>43.82286</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.64193</v>
       </c>
     </row>
     <row r="16">
@@ -859,10 +906,13 @@
         <v>-1712.927627</v>
       </c>
       <c r="G16" t="n">
-        <v>43.64016</v>
+        <v>41.49</v>
       </c>
       <c r="H16" t="n">
-        <v>10.88071</v>
+        <v>44.47241</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.91626</v>
       </c>
     </row>
     <row r="17">
@@ -885,10 +935,13 @@
         <v>-1953.741299</v>
       </c>
       <c r="G17" t="n">
-        <v>44.29632</v>
+        <v>43.23</v>
       </c>
       <c r="H17" t="n">
-        <v>11.86916</v>
+        <v>45.14498</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19.18741</v>
       </c>
     </row>
     <row r="18">
@@ -911,10 +964,13 @@
         <v>-2185.036539</v>
       </c>
       <c r="G18" t="n">
-        <v>44.9949</v>
+        <v>44.71</v>
       </c>
       <c r="H18" t="n">
-        <v>12.90208</v>
+        <v>45.83703</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.46246</v>
       </c>
     </row>
     <row r="19">
@@ -937,10 +993,13 @@
         <v>-2405.686501</v>
       </c>
       <c r="G19" t="n">
-        <v>45.73149</v>
+        <v>45.96</v>
       </c>
       <c r="H19" t="n">
-        <v>13.98152</v>
+        <v>46.54518</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21.74762</v>
       </c>
     </row>
     <row r="20">
@@ -963,10 +1022,13 @@
         <v>-2614.6162</v>
       </c>
       <c r="G20" t="n">
-        <v>46.50133</v>
+        <v>47</v>
       </c>
       <c r="H20" t="n">
-        <v>15.1092</v>
+        <v>47.26607</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23.04815</v>
       </c>
     </row>
     <row r="21">
@@ -989,10 +1051,13 @@
         <v>-2810.807752</v>
       </c>
       <c r="G21" t="n">
-        <v>47.29935</v>
+        <v>47.86</v>
       </c>
       <c r="H21" t="n">
-        <v>16.28647</v>
+        <v>47.99625</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24.36838</v>
       </c>
     </row>
     <row r="22">
@@ -1015,10 +1080,13 @@
         <v>-2993.30533</v>
       </c>
       <c r="G22" t="n">
-        <v>48.12021</v>
+        <v>48.54</v>
       </c>
       <c r="H22" t="n">
-        <v>17.51433</v>
+        <v>48.73203</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25.71175</v>
       </c>
     </row>
     <row r="23">
@@ -1041,10 +1109,13 @@
         <v>-3161.219827</v>
       </c>
       <c r="G23" t="n">
-        <v>48.95835</v>
+        <v>49.06</v>
       </c>
       <c r="H23" t="n">
-        <v>18.79335</v>
+        <v>49.46953</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27.08087</v>
       </c>
     </row>
     <row r="24">
@@ -1067,10 +1138,13 @@
         <v>-3313.733178</v>
       </c>
       <c r="G24" t="n">
-        <v>49.80797</v>
+        <v>49.44</v>
       </c>
       <c r="H24" t="n">
-        <v>20.12372</v>
+        <v>50.20462</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28.47752</v>
       </c>
     </row>
     <row r="25">
@@ -1093,10 +1167,13 @@
         <v>-3450.102354</v>
       </c>
       <c r="G25" t="n">
-        <v>50.66314</v>
+        <v>49.68</v>
       </c>
       <c r="H25" t="n">
-        <v>21.50523</v>
+        <v>50.93299</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.90277</v>
       </c>
     </row>
     <row r="26">
@@ -1119,10 +1196,13 @@
         <v>-3569.662978</v>
       </c>
       <c r="G26" t="n">
-        <v>51.51781</v>
+        <v>49.8</v>
       </c>
       <c r="H26" t="n">
-        <v>22.93721</v>
+        <v>51.65011</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31.35696</v>
       </c>
     </row>
     <row r="27">
@@ -1145,10 +1225,13 @@
         <v>-3671.832563</v>
       </c>
       <c r="G27" t="n">
-        <v>52.36584</v>
+        <v>49.8</v>
       </c>
       <c r="H27" t="n">
-        <v>24.41859</v>
+        <v>52.35137</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32.83979</v>
       </c>
     </row>
     <row r="28">
@@ -1171,10 +1254,13 @@
         <v>-3756.113349</v>
       </c>
       <c r="G28" t="n">
-        <v>53.20106</v>
+        <v>49.7</v>
       </c>
       <c r="H28" t="n">
-        <v>25.94789</v>
+        <v>53.03204</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34.35031</v>
       </c>
     </row>
     <row r="29">
@@ -1197,10 +1283,13 @@
         <v>-3822.094728</v>
       </c>
       <c r="G29" t="n">
-        <v>54.01732</v>
+        <v>49.48</v>
       </c>
       <c r="H29" t="n">
-        <v>27.5232</v>
+        <v>53.68737</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35.88699</v>
       </c>
     </row>
     <row r="30">
@@ -1223,10 +1312,13 @@
         <v>-3869.455245</v>
       </c>
       <c r="G30" t="n">
-        <v>54.8085</v>
+        <v>49.17</v>
       </c>
       <c r="H30" t="n">
-        <v>29.1422</v>
+        <v>54.31265</v>
+      </c>
+      <c r="I30" t="n">
+        <v>37.44777</v>
       </c>
     </row>
     <row r="31">
@@ -1249,10 +1341,13 @@
         <v>-3897.964166</v>
       </c>
       <c r="G31" t="n">
-        <v>55.56858</v>
+        <v>48.75</v>
       </c>
       <c r="H31" t="n">
-        <v>30.80216</v>
+        <v>54.90324</v>
+      </c>
+      <c r="I31" t="n">
+        <v>39.03006</v>
       </c>
     </row>
     <row r="32">
@@ -1275,10 +1370,13 @@
         <v>-3907.482597</v>
       </c>
       <c r="G32" t="n">
-        <v>56.29165</v>
+        <v>48.24</v>
       </c>
       <c r="H32" t="n">
-        <v>32.5</v>
+        <v>55.45463</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.63077</v>
       </c>
     </row>
     <row r="33">
@@ -1301,10 +1399,13 @@
         <v>-3897.964166</v>
       </c>
       <c r="G33" t="n">
-        <v>56.972</v>
+        <v>47.64</v>
       </c>
       <c r="H33" t="n">
-        <v>34.23223</v>
+        <v>55.96251</v>
+      </c>
+      <c r="I33" t="n">
+        <v>42.24639</v>
       </c>
     </row>
     <row r="34">
@@ -1327,10 +1428,13 @@
         <v>-3869.455245</v>
       </c>
       <c r="G34" t="n">
-        <v>57.60412</v>
+        <v>46.94</v>
       </c>
       <c r="H34" t="n">
-        <v>35.99505</v>
+        <v>56.42282</v>
+      </c>
+      <c r="I34" t="n">
+        <v>43.87301</v>
       </c>
     </row>
     <row r="35">
@@ -1353,10 +1457,13 @@
         <v>-3822.094728</v>
       </c>
       <c r="G35" t="n">
-        <v>58.18272</v>
+        <v>46.15</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7843</v>
+        <v>56.8318</v>
+      </c>
+      <c r="I35" t="n">
+        <v>45.50635</v>
       </c>
     </row>
     <row r="36">
@@ -1379,10 +1486,13 @@
         <v>-3756.113349</v>
       </c>
       <c r="G36" t="n">
-        <v>58.70282</v>
+        <v>45.27</v>
       </c>
       <c r="H36" t="n">
-        <v>39.59555</v>
+        <v>57.18603</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47.14183</v>
       </c>
     </row>
     <row r="37">
@@ -1405,10 +1515,13 @@
         <v>-3671.832563</v>
       </c>
       <c r="G37" t="n">
-        <v>59.15973</v>
+        <v>44.29</v>
       </c>
       <c r="H37" t="n">
-        <v>41.42409</v>
+        <v>57.48248</v>
+      </c>
+      <c r="I37" t="n">
+        <v>48.7746</v>
       </c>
     </row>
     <row r="38">
@@ -1431,10 +1544,13 @@
         <v>-3569.662978</v>
       </c>
       <c r="G38" t="n">
-        <v>59.5491</v>
+        <v>43.22</v>
       </c>
       <c r="H38" t="n">
-        <v>43.26496</v>
+        <v>57.71857</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50.39963</v>
       </c>
     </row>
     <row r="39">
@@ -1457,10 +1573,13 @@
         <v>-3450.102354</v>
       </c>
       <c r="G39" t="n">
-        <v>59.86698</v>
+        <v>42.05</v>
       </c>
       <c r="H39" t="n">
-        <v>45.113</v>
+        <v>57.89218</v>
+      </c>
+      <c r="I39" t="n">
+        <v>52.01174</v>
       </c>
     </row>
     <row r="40">
@@ -1483,10 +1602,13 @@
         <v>-3313.733178</v>
       </c>
       <c r="G40" t="n">
-        <v>60.10976</v>
+        <v>40.79</v>
       </c>
       <c r="H40" t="n">
-        <v>46.96289</v>
+        <v>58.00169</v>
+      </c>
+      <c r="I40" t="n">
+        <v>53.60568</v>
       </c>
     </row>
     <row r="41">
@@ -1509,10 +1631,13 @@
         <v>-3161.219827</v>
       </c>
       <c r="G41" t="n">
-        <v>60.27429</v>
+        <v>39.42</v>
       </c>
       <c r="H41" t="n">
-        <v>48.80915</v>
+        <v>58.04602</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55.17622</v>
       </c>
     </row>
     <row r="42">
@@ -1535,10 +1660,13 @@
         <v>-2993.30533</v>
       </c>
       <c r="G42" t="n">
-        <v>60.35782</v>
+        <v>37.96</v>
       </c>
       <c r="H42" t="n">
-        <v>50.64622</v>
+        <v>58.0246</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56.71822</v>
       </c>
     </row>
     <row r="43">
@@ -1561,10 +1689,13 @@
         <v>-2810.807752</v>
       </c>
       <c r="G43" t="n">
-        <v>60.35807</v>
+        <v>36.4</v>
       </c>
       <c r="H43" t="n">
-        <v>52.46847</v>
+        <v>57.93741</v>
+      </c>
+      <c r="I43" t="n">
+        <v>58.22669</v>
       </c>
     </row>
     <row r="44">
@@ -1587,10 +1718,13 @@
         <v>-2614.6162</v>
       </c>
       <c r="G44" t="n">
-        <v>60.27322</v>
+        <v>34.73</v>
       </c>
       <c r="H44" t="n">
-        <v>54.27025</v>
+        <v>57.78495</v>
+      </c>
+      <c r="I44" t="n">
+        <v>59.69693</v>
       </c>
     </row>
     <row r="45">
@@ -1613,10 +1747,13 @@
         <v>-2405.686501</v>
       </c>
       <c r="G45" t="n">
-        <v>60.10189</v>
+        <v>32.97</v>
       </c>
       <c r="H45" t="n">
-        <v>56.04592</v>
+        <v>57.5682</v>
+      </c>
+      <c r="I45" t="n">
+        <v>61.12457</v>
       </c>
     </row>
     <row r="46">
@@ -1639,10 +1776,13 @@
         <v>-2185.036539</v>
       </c>
       <c r="G46" t="n">
-        <v>59.84319</v>
+        <v>31.11</v>
       </c>
       <c r="H46" t="n">
-        <v>57.7899</v>
+        <v>57.28859</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62.50569</v>
       </c>
     </row>
     <row r="47">
@@ -1665,10 +1805,13 @@
         <v>-1953.741299</v>
       </c>
       <c r="G47" t="n">
-        <v>59.49673</v>
+        <v>29.15</v>
       </c>
       <c r="H47" t="n">
-        <v>59.49673</v>
+        <v>56.94792</v>
+      </c>
+      <c r="I47" t="n">
+        <v>63.83686</v>
       </c>
     </row>
     <row r="48">
@@ -1691,10 +1834,13 @@
         <v>-1712.927627</v>
       </c>
       <c r="G48" t="n">
-        <v>59.06253</v>
+        <v>27.1</v>
       </c>
       <c r="H48" t="n">
-        <v>61.16104</v>
+        <v>56.54827</v>
+      </c>
+      <c r="I48" t="n">
+        <v>65.11525</v>
       </c>
     </row>
     <row r="49">
@@ -1717,10 +1863,13 @@
         <v>-1463.768745</v>
       </c>
       <c r="G49" t="n">
-        <v>58.54114</v>
+        <v>24.96</v>
       </c>
       <c r="H49" t="n">
-        <v>62.77769</v>
+        <v>56.09192</v>
+      </c>
+      <c r="I49" t="n">
+        <v>66.33866999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1743,10 +1892,13 @@
         <v>-1207.478528</v>
       </c>
       <c r="G50" t="n">
-        <v>57.93353</v>
+        <v>22.74</v>
       </c>
       <c r="H50" t="n">
-        <v>64.34171000000001</v>
+        <v>55.5812</v>
+      </c>
+      <c r="I50" t="n">
+        <v>67.50554</v>
       </c>
     </row>
     <row r="51">
@@ -1769,10 +1921,13 @@
         <v>-945.305597</v>
       </c>
       <c r="G51" t="n">
-        <v>57.24112</v>
+        <v>20.44</v>
       </c>
       <c r="H51" t="n">
-        <v>65.84838000000001</v>
+        <v>55.0184</v>
+      </c>
+      <c r="I51" t="n">
+        <v>68.61494999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1795,10 +1950,13 @@
         <v>-678.527232</v>
       </c>
       <c r="G52" t="n">
-        <v>56.46577</v>
+        <v>18.08</v>
       </c>
       <c r="H52" t="n">
-        <v>67.29329</v>
+        <v>54.40565</v>
+      </c>
+      <c r="I52" t="n">
+        <v>69.66659</v>
       </c>
     </row>
     <row r="53">
@@ -1821,10 +1979,13 @@
         <v>-408.443151</v>
       </c>
       <c r="G53" t="n">
-        <v>55.60974</v>
+        <v>15.67</v>
       </c>
       <c r="H53" t="n">
-        <v>68.67231</v>
+        <v>53.74478</v>
+      </c>
+      <c r="I53" t="n">
+        <v>70.66067</v>
       </c>
     </row>
     <row r="54">
@@ -1847,10 +2008,13 @@
         <v>-136.369176</v>
       </c>
       <c r="G54" t="n">
-        <v>54.67569</v>
+        <v>13.22</v>
       </c>
       <c r="H54" t="n">
-        <v>69.98169</v>
+        <v>53.03727</v>
+      </c>
+      <c r="I54" t="n">
+        <v>71.59782</v>
       </c>
     </row>
     <row r="55">
@@ -1873,10 +2037,13 @@
         <v>1225.329453</v>
       </c>
       <c r="G55" t="n">
-        <v>53.66663</v>
+        <v>10.74</v>
       </c>
       <c r="H55" t="n">
-        <v>71.21803</v>
+        <v>52.28396</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72.47923</v>
       </c>
     </row>
     <row r="56">
@@ -1899,10 +2066,13 @@
         <v>3622.435584</v>
       </c>
       <c r="G56" t="n">
-        <v>52.58629</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>72.37882</v>
+        <v>51.47979</v>
+      </c>
+      <c r="I56" t="n">
+        <v>73.31225000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1925,10 +2095,13 @@
         <v>5861.223896</v>
       </c>
       <c r="G57" t="n">
-        <v>51.43999</v>
+        <v>6.01</v>
       </c>
       <c r="H57" t="n">
-        <v>73.46392</v>
+        <v>50.61331</v>
+      </c>
+      <c r="I57" t="n">
+        <v>74.10996</v>
       </c>
     </row>
     <row r="58">
@@ -1951,10 +2124,13 @@
         <v>7843.848599</v>
       </c>
       <c r="G58" t="n">
-        <v>50.23476</v>
+        <v>3.98</v>
       </c>
       <c r="H58" t="n">
-        <v>74.47609</v>
+        <v>49.67256</v>
+      </c>
+      <c r="I58" t="n">
+        <v>74.88442000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1977,10 +2153,13 @@
         <v>9483.65948</v>
       </c>
       <c r="G59" t="n">
-        <v>48.97887</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
-        <v>75.42085</v>
+        <v>48.64687</v>
+      </c>
+      <c r="I59" t="n">
+        <v>75.64605</v>
       </c>
     </row>
     <row r="60">
@@ -2003,10 +2182,13 @@
         <v>10708.988933</v>
       </c>
       <c r="G60" t="n">
-        <v>47.68147</v>
+        <v>1.04</v>
       </c>
       <c r="H60" t="n">
-        <v>76.30631</v>
+        <v>47.52834</v>
+      </c>
+      <c r="I60" t="n">
+        <v>76.40393</v>
       </c>
     </row>
     <row r="61">
@@ -2029,10 +2211,13 @@
         <v>11466.284183</v>
       </c>
       <c r="G61" t="n">
-        <v>46.35205</v>
+        <v>0.26</v>
       </c>
       <c r="H61" t="n">
-        <v>77.14276</v>
+        <v>46.31276</v>
+      </c>
+      <c r="I61" t="n">
+        <v>77.16649</v>
       </c>
     </row>
     <row r="62">
@@ -2055,9 +2240,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>45</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>77.94229</v>
       </c>
     </row>
@@ -2081,9 +2269,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>43.63287</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>78.71577000000001</v>
       </c>
     </row>
@@ -2107,9 +2298,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>42.25244</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>79.46528000000001</v>
       </c>
     </row>
@@ -2133,9 +2327,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>40.85914</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>80.19059</v>
       </c>
     </row>
@@ -2159,9 +2356,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>39.4534</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>80.89146</v>
       </c>
     </row>
@@ -2185,9 +2385,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>38.03564</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>81.5677</v>
       </c>
     </row>
@@ -2211,9 +2414,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
         <v>36.6063</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>82.21908999999999</v>
       </c>
     </row>
@@ -2237,9 +2443,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>35.1658</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>82.84544</v>
       </c>
     </row>
@@ -2263,9 +2472,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>33.71459</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>83.44655</v>
       </c>
     </row>
@@ -2289,9 +2501,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>32.25312</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>84.02224</v>
       </c>
     </row>
@@ -2315,9 +2530,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>30.78181</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>84.57234</v>
       </c>
     </row>
@@ -2341,9 +2559,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
         <v>29.30113</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>85.09667</v>
       </c>
     </row>
@@ -2367,9 +2588,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>27.81153</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>85.59509</v>
       </c>
     </row>
@@ -2393,9 +2617,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
         <v>26.31345</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>86.06743</v>
       </c>
     </row>
@@ -2419,9 +2646,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
         <v>24.80736</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>86.51355</v>
       </c>
     </row>
@@ -2445,9 +2675,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>23.29371</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>86.93331999999999</v>
       </c>
     </row>
@@ -2471,9 +2704,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>21.77297</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>87.32662000000001</v>
       </c>
     </row>
@@ -2497,9 +2733,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
         <v>20.24559</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>87.69331</v>
       </c>
     </row>
@@ -2523,9 +2762,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>18.71205</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>88.03328</v>
       </c>
     </row>
@@ -2549,9 +2791,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
         <v>17.17281</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>88.34645</v>
       </c>
     </row>
@@ -2575,9 +2820,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>15.62834</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>88.6327</v>
       </c>
     </row>
@@ -2601,9 +2849,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>14.0791</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>88.89194999999999</v>
       </c>
     </row>
@@ -2627,9 +2878,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.52558</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>89.12412999999999</v>
       </c>
     </row>
@@ -2653,9 +2907,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>10.96824</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>89.32915</v>
       </c>
     </row>
@@ -2679,9 +2936,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
         <v>9.40756</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>89.50697</v>
       </c>
     </row>
@@ -2705,9 +2965,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
         <v>7.84402</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>89.65752000000001</v>
       </c>
     </row>
@@ -2731,9 +2994,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.27808</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>89.78076</v>
       </c>
     </row>
@@ -2757,9 +3023,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.71024</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>89.87666</v>
       </c>
     </row>
@@ -2783,9 +3052,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.14095</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>89.94517</v>
       </c>
     </row>
@@ -2809,9 +3081,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.57072</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>89.98629</v>
       </c>
     </row>
@@ -2838,6 +3113,9 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>90</v>
       </c>
     </row>
@@ -2861,9 +3139,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>-1.57072</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>89.98629</v>
       </c>
     </row>
@@ -2887,9 +3168,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
         <v>-3.14095</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>89.94517</v>
       </c>
     </row>
@@ -2913,9 +3197,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
         <v>-4.71024</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>89.87666</v>
       </c>
     </row>
@@ -2939,9 +3226,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>-6.27808</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>89.78076</v>
       </c>
     </row>
@@ -2965,9 +3255,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
         <v>-7.84402</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>89.65752000000001</v>
       </c>
     </row>
@@ -2991,9 +3284,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>-9.40756</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>89.50697</v>
       </c>
     </row>
@@ -3017,9 +3313,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
         <v>-10.96824</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>89.32915</v>
       </c>
     </row>
@@ -3043,9 +3342,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
         <v>-12.52558</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>89.12412999999999</v>
       </c>
     </row>
@@ -3069,9 +3371,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>-14.0791</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>88.89194999999999</v>
       </c>
     </row>
@@ -3095,9 +3400,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
         <v>-15.62834</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>88.6327</v>
       </c>
     </row>
@@ -3121,9 +3429,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
         <v>-17.17281</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>88.34645</v>
       </c>
     </row>
@@ -3147,9 +3458,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
         <v>-18.71205</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>88.03328</v>
       </c>
     </row>
@@ -3173,9 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
         <v>-20.24559</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>87.69331</v>
       </c>
     </row>
@@ -3199,9 +3516,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
         <v>-21.77297</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>87.32662000000001</v>
       </c>
     </row>
@@ -3225,9 +3545,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
         <v>-23.29371</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>86.93331999999999</v>
       </c>
     </row>
@@ -3251,9 +3574,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
         <v>-24.80736</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>86.51355</v>
       </c>
     </row>
@@ -3277,9 +3603,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
         <v>-26.31345</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>86.06743</v>
       </c>
     </row>
@@ -3303,9 +3632,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
         <v>-27.81153</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>85.59509</v>
       </c>
     </row>
@@ -3329,9 +3661,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
         <v>-29.30113</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>85.09667</v>
       </c>
     </row>
@@ -3355,9 +3690,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
         <v>-30.78181</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>84.57234</v>
       </c>
     </row>
@@ -3381,9 +3719,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
         <v>-32.25312</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>84.02224</v>
       </c>
     </row>
@@ -3407,9 +3748,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
         <v>-33.71459</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>83.44655</v>
       </c>
     </row>
@@ -3433,9 +3777,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
         <v>-35.1658</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>82.84544</v>
       </c>
     </row>
@@ -3459,9 +3806,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
         <v>-36.6063</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>82.21908999999999</v>
       </c>
     </row>
@@ -3485,9 +3835,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
         <v>-38.03564</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>81.5677</v>
       </c>
     </row>
@@ -3511,9 +3864,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
         <v>-39.4534</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>80.89146</v>
       </c>
     </row>
@@ -3537,9 +3893,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
         <v>-40.85914</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>80.19059</v>
       </c>
     </row>
@@ -3563,9 +3922,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
         <v>-42.25244</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>79.46528000000001</v>
       </c>
     </row>
@@ -3589,9 +3951,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
         <v>-43.63287</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>78.71577000000001</v>
       </c>
     </row>
@@ -3615,9 +3980,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
         <v>-45</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>77.94229</v>
       </c>
     </row>
@@ -3641,9 +4009,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
         <v>-46.35343</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>77.14506</v>
       </c>
     </row>
@@ -3667,9 +4038,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
         <v>-47.69273</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>76.32433</v>
       </c>
     </row>
@@ -3693,9 +4067,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
         <v>-49.01751</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>75.48035</v>
       </c>
     </row>
@@ -3719,9 +4096,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
         <v>-50.32736</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>74.61338000000001</v>
       </c>
     </row>
@@ -3745,9 +4125,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
         <v>-51.62188</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>73.72368</v>
       </c>
     </row>
@@ -3771,9 +4154,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
         <v>-52.90067</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>72.81153</v>
       </c>
     </row>
@@ -3797,9 +4183,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
         <v>-54.16335</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>71.8772</v>
       </c>
     </row>
@@ -3823,9 +4212,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
         <v>-55.40953</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>70.92097</v>
       </c>
     </row>
@@ -3849,9 +4241,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
         <v>-56.63884</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>69.94314</v>
       </c>
     </row>
@@ -3875,9 +4270,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
         <v>-57.85088</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>68.944</v>
       </c>
     </row>
@@ -3901,9 +4299,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
         <v>-59.04531</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
         <v>67.92386</v>
       </c>
     </row>
@@ -3927,9 +4328,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
         <v>-60.22175</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>66.88303000000001</v>
       </c>
     </row>
@@ -3953,9 +4357,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
         <v>-61.37985</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>65.82183000000001</v>
       </c>
     </row>
@@ -3979,9 +4386,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
         <v>-62.51925</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>64.74057999999999</v>
       </c>
     </row>
@@ -4005,9 +4415,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
         <v>-63.63961</v>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>63.63961</v>
       </c>
     </row>
@@ -4031,9 +4444,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
         <v>-64.74057999999999</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>62.51925</v>
       </c>
     </row>
@@ -4057,9 +4473,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
         <v>-65.82183000000001</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>61.37985</v>
       </c>
     </row>
@@ -4083,9 +4502,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
         <v>-66.88303000000001</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>60.22175</v>
       </c>
     </row>
@@ -4109,9 +4531,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
         <v>-67.92386</v>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>59.04531</v>
       </c>
     </row>
@@ -4135,9 +4560,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
         <v>-68.944</v>
       </c>
-      <c r="H142" t="n">
+      <c r="I142" t="n">
         <v>57.85088</v>
       </c>
     </row>
@@ -4161,9 +4589,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
         <v>-69.94314</v>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
         <v>56.63884</v>
       </c>
     </row>
@@ -4187,9 +4618,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
         <v>-70.92097</v>
       </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
         <v>55.40953</v>
       </c>
     </row>
@@ -4213,9 +4647,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
         <v>-71.8772</v>
       </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
         <v>54.16335</v>
       </c>
     </row>
@@ -4239,9 +4676,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
         <v>-72.81153</v>
       </c>
-      <c r="H146" t="n">
+      <c r="I146" t="n">
         <v>52.90067</v>
       </c>
     </row>
@@ -4265,9 +4705,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
         <v>-73.72368</v>
       </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
         <v>51.62188</v>
       </c>
     </row>
@@ -4291,9 +4734,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
         <v>-74.61338000000001</v>
       </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
         <v>50.32736</v>
       </c>
     </row>
@@ -4317,9 +4763,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
         <v>-75.48035</v>
       </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
         <v>49.01751</v>
       </c>
     </row>
@@ -4343,9 +4792,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
         <v>-76.32433</v>
       </c>
-      <c r="H150" t="n">
+      <c r="I150" t="n">
         <v>47.69273</v>
       </c>
     </row>
@@ -4369,9 +4821,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
         <v>-77.14506</v>
       </c>
-      <c r="H151" t="n">
+      <c r="I151" t="n">
         <v>46.35343</v>
       </c>
     </row>
@@ -4395,9 +4850,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
         <v>-77.94229</v>
       </c>
-      <c r="H152" t="n">
+      <c r="I152" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4421,9 +4879,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
         <v>-78.71577000000001</v>
       </c>
-      <c r="H153" t="n">
+      <c r="I153" t="n">
         <v>43.63287</v>
       </c>
     </row>
@@ -4447,9 +4908,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
         <v>-79.46528000000001</v>
       </c>
-      <c r="H154" t="n">
+      <c r="I154" t="n">
         <v>42.25244</v>
       </c>
     </row>
@@ -4473,9 +4937,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
         <v>-80.19059</v>
       </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
         <v>40.85914</v>
       </c>
     </row>
@@ -4499,9 +4966,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
         <v>-80.89146</v>
       </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
         <v>39.4534</v>
       </c>
     </row>
@@ -4525,9 +4995,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
         <v>-81.5677</v>
       </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
         <v>38.03564</v>
       </c>
     </row>
@@ -4551,9 +5024,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
         <v>-82.21908999999999</v>
       </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
         <v>36.6063</v>
       </c>
     </row>
@@ -4577,9 +5053,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
         <v>-82.84544</v>
       </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
         <v>35.1658</v>
       </c>
     </row>
@@ -4603,9 +5082,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
         <v>-83.44655</v>
       </c>
-      <c r="H160" t="n">
+      <c r="I160" t="n">
         <v>33.71459</v>
       </c>
     </row>
@@ -4629,9 +5111,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
         <v>-84.02224</v>
       </c>
-      <c r="H161" t="n">
+      <c r="I161" t="n">
         <v>32.25312</v>
       </c>
     </row>
@@ -4655,9 +5140,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
         <v>-84.57234</v>
       </c>
-      <c r="H162" t="n">
+      <c r="I162" t="n">
         <v>30.78181</v>
       </c>
     </row>
@@ -4681,9 +5169,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
         <v>-85.09667</v>
       </c>
-      <c r="H163" t="n">
+      <c r="I163" t="n">
         <v>29.30113</v>
       </c>
     </row>
@@ -4707,9 +5198,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
         <v>-85.59509</v>
       </c>
-      <c r="H164" t="n">
+      <c r="I164" t="n">
         <v>27.81153</v>
       </c>
     </row>
@@ -4733,9 +5227,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
         <v>-86.06743</v>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>26.31345</v>
       </c>
     </row>
@@ -4759,9 +5256,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
         <v>-86.51355</v>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>24.80736</v>
       </c>
     </row>
@@ -4785,9 +5285,12 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
         <v>-86.93331999999999</v>
       </c>
-      <c r="H167" t="n">
+      <c r="I167" t="n">
         <v>23.29371</v>
       </c>
     </row>
@@ -4811,9 +5314,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
         <v>-87.32662000000001</v>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>21.77297</v>
       </c>
     </row>
@@ -4837,9 +5343,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
         <v>-87.69331</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>20.24559</v>
       </c>
     </row>
@@ -4863,9 +5372,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
         <v>-88.03328</v>
       </c>
-      <c r="H170" t="n">
+      <c r="I170" t="n">
         <v>18.71205</v>
       </c>
     </row>
@@ -4889,9 +5401,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
         <v>-88.34645</v>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>17.17281</v>
       </c>
     </row>
@@ -4915,9 +5430,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
         <v>-88.6327</v>
       </c>
-      <c r="H172" t="n">
+      <c r="I172" t="n">
         <v>15.62834</v>
       </c>
     </row>
@@ -4941,9 +5459,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
         <v>-88.89194999999999</v>
       </c>
-      <c r="H173" t="n">
+      <c r="I173" t="n">
         <v>14.0791</v>
       </c>
     </row>
@@ -4967,9 +5488,12 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
         <v>-89.12412999999999</v>
       </c>
-      <c r="H174" t="n">
+      <c r="I174" t="n">
         <v>12.52558</v>
       </c>
     </row>
@@ -4993,9 +5517,12 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
         <v>-89.32915</v>
       </c>
-      <c r="H175" t="n">
+      <c r="I175" t="n">
         <v>10.96824</v>
       </c>
     </row>
@@ -5019,9 +5546,12 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
         <v>-89.50697</v>
       </c>
-      <c r="H176" t="n">
+      <c r="I176" t="n">
         <v>9.40756</v>
       </c>
     </row>
@@ -5045,9 +5575,12 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
         <v>-89.65752000000001</v>
       </c>
-      <c r="H177" t="n">
+      <c r="I177" t="n">
         <v>7.84402</v>
       </c>
     </row>
@@ -5071,9 +5604,12 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
         <v>-89.78076</v>
       </c>
-      <c r="H178" t="n">
+      <c r="I178" t="n">
         <v>6.27808</v>
       </c>
     </row>
@@ -5097,9 +5633,12 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
         <v>-89.87666</v>
       </c>
-      <c r="H179" t="n">
+      <c r="I179" t="n">
         <v>4.71024</v>
       </c>
     </row>
@@ -5123,9 +5662,12 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
         <v>-89.94517</v>
       </c>
-      <c r="H180" t="n">
+      <c r="I180" t="n">
         <v>3.14095</v>
       </c>
     </row>
@@ -5149,9 +5691,12 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
         <v>-89.98629</v>
       </c>
-      <c r="H181" t="n">
+      <c r="I181" t="n">
         <v>1.57072</v>
       </c>
     </row>
@@ -5175,9 +5720,12 @@
         <v>-93779.58233999999</v>
       </c>
       <c r="G182" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H182" t="n">
         <v>-90</v>
       </c>
-      <c r="H182" t="n">
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5201,10 +5749,13 @@
         <v>-85671.91146600001</v>
       </c>
       <c r="G183" t="n">
-        <v>-89.96504</v>
+        <v>-2.08</v>
       </c>
       <c r="H183" t="n">
-        <v>-1.57035</v>
+        <v>-89.97797</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-1.2075</v>
       </c>
     </row>
     <row r="184">
@@ -5227,10 +5778,13 @@
         <v>-62750.788795</v>
       </c>
       <c r="G184" t="n">
-        <v>-89.77967</v>
+        <v>-7.93</v>
       </c>
       <c r="H184" t="n">
-        <v>-3.13518</v>
+        <v>-89.92326</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-1.76045</v>
       </c>
     </row>
     <row r="185">
@@ -5253,10 +5807,13 @@
         <v>-28979.484668</v>
       </c>
       <c r="G185" t="n">
-        <v>-89.34253</v>
+        <v>-16.27</v>
       </c>
       <c r="H185" t="n">
-        <v>-4.68224</v>
+        <v>-89.889</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-1.90564</v>
       </c>
     </row>
     <row r="186">
@@ -5279,10 +5836,13 @@
         <v>1090.953408</v>
       </c>
       <c r="G186" t="n">
-        <v>-88.59171000000001</v>
+        <v>-25.16</v>
       </c>
       <c r="H186" t="n">
-        <v>-6.19494</v>
+        <v>-89.83449</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-2.02042</v>
       </c>
     </row>
     <row r="187">
@@ -5305,10 +5865,13 @@
         <v>5428.217859</v>
       </c>
       <c r="G187" t="n">
-        <v>-87.51087</v>
+        <v>-33.14</v>
       </c>
       <c r="H187" t="n">
-        <v>-7.65621</v>
+        <v>-89.60818</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-2.3514</v>
       </c>
     </row>
     <row r="188">
@@ -5331,10 +5894,13 @@
         <v>9659.828223</v>
       </c>
       <c r="G188" t="n">
-        <v>-86.10601</v>
+        <v>-39.97</v>
       </c>
       <c r="H188" t="n">
-        <v>-9.05011</v>
+        <v>-89.10071000000001</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-2.9058</v>
       </c>
     </row>
     <row r="189">
@@ -5357,10 +5923,13 @@
         <v>13703.421019</v>
       </c>
       <c r="G189" t="n">
-        <v>-84.3901</v>
+        <v>-45.66</v>
       </c>
       <c r="H189" t="n">
-        <v>-10.3618</v>
+        <v>-88.25067</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-3.62958</v>
       </c>
     </row>
     <row r="190">
@@ -5383,10 +5952,13 @@
         <v>17480.292312</v>
       </c>
       <c r="G190" t="n">
-        <v>-82.38221</v>
+        <v>-50.36</v>
       </c>
       <c r="H190" t="n">
-        <v>-11.57806</v>
+        <v>-87.03867</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-4.45645</v>
       </c>
     </row>
     <row r="191">
@@ -5409,10 +5981,13 @@
         <v>20916.929598</v>
       </c>
       <c r="G191" t="n">
-        <v>-80.10706999999999</v>
+        <v>-54.2</v>
       </c>
       <c r="H191" t="n">
-        <v>-12.68771</v>
+        <v>-85.47557</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-5.326</v>
       </c>
     </row>
     <row r="192">
@@ -5435,10 +6010,13 @@
         <v>23946.442643</v>
       </c>
       <c r="G192" t="n">
-        <v>-77.59452</v>
+        <v>-57.34</v>
       </c>
       <c r="H192" t="n">
-        <v>-13.68201</v>
+        <v>-83.59078</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-6.19008</v>
       </c>
     </row>
     <row r="193">
@@ -5461,10 +6039,13 @@
         <v>26509.865421</v>
       </c>
       <c r="G193" t="n">
-        <v>-74.87889</v>
+        <v>-59.91</v>
       </c>
       <c r="H193" t="n">
-        <v>-14.55498</v>
+        <v>-81.42406</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-7.01321</v>
       </c>
     </row>
     <row r="194">
@@ -5487,10 +6068,13 @@
         <v>28557.303822</v>
       </c>
       <c r="G194" t="n">
-        <v>-71.99826</v>
+        <v>-61.98</v>
       </c>
       <c r="H194" t="n">
-        <v>-15.3037</v>
+        <v>-79.02065</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-7.77098</v>
       </c>
     </row>
     <row r="195">
@@ -5513,10 +6097,13 @@
         <v>30048.906788</v>
       </c>
       <c r="G195" t="n">
-        <v>-68.99357999999999</v>
+        <v>-63.65</v>
       </c>
       <c r="H195" t="n">
-        <v>-15.92842</v>
+        <v>-76.42836</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-8.44814</v>
       </c>
     </row>
     <row r="196">
@@ -5539,10 +6126,13 @@
         <v>30955.641964</v>
       </c>
       <c r="G196" t="n">
-        <v>-65.90785</v>
+        <v>-64.95999999999999</v>
       </c>
       <c r="H196" t="n">
-        <v>-16.43267</v>
+        <v>-73.69577</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-9.03697</v>
       </c>
     </row>
     <row r="197">
@@ -5565,10 +6155,13 @@
         <v>31259.86078</v>
       </c>
       <c r="G197" t="n">
-        <v>-62.78518</v>
+        <v>-65.95</v>
       </c>
       <c r="H197" t="n">
-        <v>-16.82324</v>
+        <v>-70.87085999999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-9.536009999999999</v>
       </c>
     </row>
     <row r="198">
@@ -5591,10 +6184,13 @@
         <v>30955.641964</v>
       </c>
       <c r="G198" t="n">
-        <v>-59.66981</v>
+        <v>-66.63</v>
       </c>
       <c r="H198" t="n">
-        <v>-17.11004</v>
+        <v>-67.99987</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-9.949</v>
       </c>
     </row>
     <row r="199">
@@ -5617,10 +6213,13 @@
         <v>30048.906788</v>
       </c>
       <c r="G199" t="n">
-        <v>-56.60522</v>
+        <v>-67.02</v>
       </c>
       <c r="H199" t="n">
-        <v>-17.30595</v>
+        <v>-65.12611</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-10.28412</v>
       </c>
     </row>
     <row r="200">
@@ -5643,10 +6242,13 @@
         <v>28557.303822</v>
       </c>
       <c r="G200" t="n">
-        <v>-53.63318</v>
+        <v>-67.09</v>
       </c>
       <c r="H200" t="n">
-        <v>-17.42648</v>
+        <v>-62.28866</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-10.55327</v>
       </c>
     </row>
     <row r="201">
@@ -5669,10 +6271,13 @@
         <v>26509.865421</v>
       </c>
       <c r="G201" t="n">
-        <v>-50.7929</v>
+        <v>-66.83</v>
       </c>
       <c r="H201" t="n">
-        <v>-17.4894</v>
+        <v>-59.52083</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-10.77156</v>
       </c>
     </row>
     <row r="202">
@@ -5695,10 +6300,13 @@
         <v>23946.442643</v>
       </c>
       <c r="G202" t="n">
-        <v>-48.12021</v>
+        <v>-66.16</v>
       </c>
       <c r="H202" t="n">
-        <v>-17.51433</v>
+        <v>-56.84823</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-10.95692</v>
       </c>
     </row>
     <row r="203">
@@ -5721,10 +6329,13 @@
         <v>20916.929598</v>
       </c>
       <c r="G203" t="n">
-        <v>-45.64684</v>
+        <v>-65.01000000000001</v>
       </c>
       <c r="H203" t="n">
-        <v>-17.52218</v>
+        <v>-54.28609</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-11.13015</v>
       </c>
     </row>
     <row r="204">
@@ -5747,10 +6358,13 @@
         <v>17480.292312</v>
       </c>
       <c r="G204" t="n">
-        <v>-43.39978</v>
+        <v>-63.2</v>
       </c>
       <c r="H204" t="n">
-        <v>-17.53465</v>
+        <v>-51.83545</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-11.31574</v>
       </c>
     </row>
     <row r="205">
@@ -5773,10 +6387,13 @@
         <v>13703.421019</v>
       </c>
       <c r="G205" t="n">
-        <v>-41.40076</v>
+        <v>-60.52</v>
       </c>
       <c r="H205" t="n">
-        <v>-17.57358</v>
+        <v>-49.47736</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-11.54476</v>
       </c>
     </row>
     <row r="206">
@@ -5799,10 +6416,13 @@
         <v>9659.828223</v>
       </c>
       <c r="G206" t="n">
-        <v>-39.66587</v>
+        <v>-56.58</v>
       </c>
       <c r="H206" t="n">
-        <v>-17.66038</v>
+        <v>-47.16443</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-11.86263</v>
       </c>
     </row>
     <row r="207">
@@ -5825,10 +6445,13 @@
         <v>5428.217859</v>
       </c>
       <c r="G207" t="n">
-        <v>-38.20527</v>
+        <v>-50.77</v>
       </c>
       <c r="H207" t="n">
-        <v>-17.81541</v>
+        <v>-44.81103</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-12.34821</v>
       </c>
     </row>
     <row r="208">
@@ -5851,10 +6474,13 @@
         <v>1090.953408</v>
       </c>
       <c r="G208" t="n">
-        <v>-37.02309</v>
+        <v>-42.19</v>
       </c>
       <c r="H208" t="n">
-        <v>-18.05737</v>
+        <v>-42.29611</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-13.15672</v>
       </c>
     </row>
     <row r="209">
@@ -5877,10 +6503,13 @@
         <v>-28979.484668</v>
       </c>
       <c r="G209" t="n">
-        <v>-36.11683</v>
+        <v>-29.87</v>
       </c>
       <c r="H209" t="n">
-        <v>-18.40244</v>
+        <v>-39.56183</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-14.56779</v>
       </c>
     </row>
     <row r="210">
@@ -5903,10 +6532,13 @@
         <v>-62750.788795</v>
       </c>
       <c r="G210" t="n">
-        <v>-35.46412</v>
+        <v>-15.49</v>
       </c>
       <c r="H210" t="n">
-        <v>-18.85661</v>
+        <v>-37.03818</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-16.66955</v>
       </c>
     </row>
     <row r="211">
@@ -5929,10 +6561,13 @@
         <v>-85671.91146600001</v>
       </c>
       <c r="G211" t="n">
-        <v>-35.00338</v>
+        <v>-4.15</v>
       </c>
       <c r="H211" t="n">
-        <v>-19.40269</v>
+        <v>-35.3774</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-18.78208</v>
       </c>
     </row>
     <row r="212">
@@ -5955,9 +6590,12 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
         <v>-34.64102</v>
       </c>
-      <c r="H212" t="n">
+      <c r="I212" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -5981,9 +6619,12 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
         <v>-34.28669</v>
       </c>
-      <c r="H213" t="n">
+      <c r="I213" t="n">
         <v>-20.60152</v>
       </c>
     </row>
@@ -6007,9 +6648,12 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
         <v>-33.92192</v>
       </c>
-      <c r="H214" t="n">
+      <c r="I214" t="n">
         <v>-21.19677</v>
       </c>
     </row>
@@ -6033,9 +6677,12 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
         <v>-33.54682</v>
       </c>
-      <c r="H215" t="n">
+      <c r="I215" t="n">
         <v>-21.78556</v>
       </c>
     </row>
@@ -6059,9 +6706,12 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
         <v>-33.1615</v>
       </c>
-      <c r="H216" t="n">
+      <c r="I216" t="n">
         <v>-22.36772</v>
       </c>
     </row>
@@ -6085,9 +6735,12 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
         <v>-32.76608</v>
       </c>
-      <c r="H217" t="n">
+      <c r="I217" t="n">
         <v>-22.94306</v>
       </c>
     </row>
@@ -6111,9 +6764,12 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
         <v>-32.36068</v>
       </c>
-      <c r="H218" t="n">
+      <c r="I218" t="n">
         <v>-23.51141</v>
       </c>
     </row>
@@ -6137,9 +6793,12 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
         <v>-31.94542</v>
       </c>
-      <c r="H219" t="n">
+      <c r="I219" t="n">
         <v>-24.0726</v>
       </c>
     </row>
@@ -6163,9 +6822,12 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
         <v>-31.52043</v>
       </c>
-      <c r="H220" t="n">
+      <c r="I220" t="n">
         <v>-24.62646</v>
       </c>
     </row>
@@ -6189,9 +6851,12 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
         <v>-31.08584</v>
       </c>
-      <c r="H221" t="n">
+      <c r="I221" t="n">
         <v>-25.17282</v>
       </c>
     </row>
@@ -6215,9 +6880,12 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
         <v>-30.64178</v>
       </c>
-      <c r="H222" t="n">
+      <c r="I222" t="n">
         <v>-25.7115</v>
       </c>
     </row>
@@ -6241,9 +6909,12 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
         <v>-30.18838</v>
       </c>
-      <c r="H223" t="n">
+      <c r="I223" t="n">
         <v>-26.24236</v>
       </c>
     </row>
@@ -6267,9 +6938,12 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
         <v>-29.72579</v>
       </c>
-      <c r="H224" t="n">
+      <c r="I224" t="n">
         <v>-26.76522</v>
       </c>
     </row>
@@ -6293,9 +6967,12 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
         <v>-29.25415</v>
       </c>
-      <c r="H225" t="n">
+      <c r="I225" t="n">
         <v>-27.27993</v>
       </c>
     </row>
@@ -6319,9 +6996,12 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
         <v>-28.77359</v>
       </c>
-      <c r="H226" t="n">
+      <c r="I226" t="n">
         <v>-27.78633</v>
       </c>
     </row>
@@ -6345,9 +7025,12 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
         <v>-28.28427</v>
       </c>
-      <c r="H227" t="n">
+      <c r="I227" t="n">
         <v>-28.28427</v>
       </c>
     </row>
@@ -6371,9 +7054,12 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
         <v>-27.78633</v>
       </c>
-      <c r="H228" t="n">
+      <c r="I228" t="n">
         <v>-28.77359</v>
       </c>
     </row>
@@ -6397,9 +7083,12 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
         <v>-27.27993</v>
       </c>
-      <c r="H229" t="n">
+      <c r="I229" t="n">
         <v>-29.25415</v>
       </c>
     </row>
@@ -6423,9 +7112,12 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
         <v>-26.76522</v>
       </c>
-      <c r="H230" t="n">
+      <c r="I230" t="n">
         <v>-29.72579</v>
       </c>
     </row>
@@ -6449,9 +7141,12 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
         <v>-26.24236</v>
       </c>
-      <c r="H231" t="n">
+      <c r="I231" t="n">
         <v>-30.18838</v>
       </c>
     </row>
@@ -6475,9 +7170,12 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
         <v>-25.7115</v>
       </c>
-      <c r="H232" t="n">
+      <c r="I232" t="n">
         <v>-30.64178</v>
       </c>
     </row>
@@ -6501,9 +7199,12 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
         <v>-25.17282</v>
       </c>
-      <c r="H233" t="n">
+      <c r="I233" t="n">
         <v>-31.08584</v>
       </c>
     </row>
@@ -6527,9 +7228,12 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
         <v>-24.62646</v>
       </c>
-      <c r="H234" t="n">
+      <c r="I234" t="n">
         <v>-31.52043</v>
       </c>
     </row>
@@ -6553,9 +7257,12 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
         <v>-24.0726</v>
       </c>
-      <c r="H235" t="n">
+      <c r="I235" t="n">
         <v>-31.94542</v>
       </c>
     </row>
@@ -6579,9 +7286,12 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
         <v>-23.51141</v>
       </c>
-      <c r="H236" t="n">
+      <c r="I236" t="n">
         <v>-32.36068</v>
       </c>
     </row>
@@ -6605,9 +7315,12 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
         <v>-22.94306</v>
       </c>
-      <c r="H237" t="n">
+      <c r="I237" t="n">
         <v>-32.76608</v>
       </c>
     </row>
@@ -6631,9 +7344,12 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
         <v>-22.36772</v>
       </c>
-      <c r="H238" t="n">
+      <c r="I238" t="n">
         <v>-33.1615</v>
       </c>
     </row>
@@ -6657,9 +7373,12 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
         <v>-21.78556</v>
       </c>
-      <c r="H239" t="n">
+      <c r="I239" t="n">
         <v>-33.54682</v>
       </c>
     </row>
@@ -6683,9 +7402,12 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
         <v>-21.19677</v>
       </c>
-      <c r="H240" t="n">
+      <c r="I240" t="n">
         <v>-33.92192</v>
       </c>
     </row>
@@ -6709,9 +7431,12 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
         <v>-20.60152</v>
       </c>
-      <c r="H241" t="n">
+      <c r="I241" t="n">
         <v>-34.28669</v>
       </c>
     </row>
@@ -6735,9 +7460,12 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
         <v>-20</v>
       </c>
-      <c r="H242" t="n">
+      <c r="I242" t="n">
         <v>-34.64102</v>
       </c>
     </row>
@@ -6761,9 +7489,12 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
         <v>-19.39238</v>
       </c>
-      <c r="H243" t="n">
+      <c r="I243" t="n">
         <v>-34.98479</v>
       </c>
     </row>
@@ -6787,9 +7518,12 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
         <v>-18.77886</v>
       </c>
-      <c r="H244" t="n">
+      <c r="I244" t="n">
         <v>-35.3179</v>
       </c>
     </row>
@@ -6813,9 +7547,12 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
         <v>-18.15962</v>
       </c>
-      <c r="H245" t="n">
+      <c r="I245" t="n">
         <v>-35.64026</v>
       </c>
     </row>
@@ -6839,9 +7576,12 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
         <v>-17.53485</v>
       </c>
-      <c r="H246" t="n">
+      <c r="I246" t="n">
         <v>-35.95176</v>
       </c>
     </row>
@@ -6865,9 +7605,12 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
         <v>-16.90473</v>
       </c>
-      <c r="H247" t="n">
+      <c r="I247" t="n">
         <v>-36.25231</v>
       </c>
     </row>
@@ -6891,9 +7634,12 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
         <v>-16.26947</v>
       </c>
-      <c r="H248" t="n">
+      <c r="I248" t="n">
         <v>-36.54182</v>
       </c>
     </row>
@@ -6917,9 +7663,12 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
         <v>-15.62925</v>
       </c>
-      <c r="H249" t="n">
+      <c r="I249" t="n">
         <v>-36.82019</v>
       </c>
     </row>
@@ -6943,9 +7692,12 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
         <v>-14.98426</v>
       </c>
-      <c r="H250" t="n">
+      <c r="I250" t="n">
         <v>-37.08735</v>
       </c>
     </row>
@@ -6969,9 +7721,12 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
         <v>-14.33472</v>
       </c>
-      <c r="H251" t="n">
+      <c r="I251" t="n">
         <v>-37.34322</v>
       </c>
     </row>
@@ -6995,9 +7750,12 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
         <v>-13.68081</v>
       </c>
-      <c r="H252" t="n">
+      <c r="I252" t="n">
         <v>-37.5877</v>
       </c>
     </row>
@@ -7021,9 +7779,12 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
         <v>-13.02273</v>
       </c>
-      <c r="H253" t="n">
+      <c r="I253" t="n">
         <v>-37.82074</v>
       </c>
     </row>
@@ -7047,9 +7808,12 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
         <v>-12.36068</v>
       </c>
-      <c r="H254" t="n">
+      <c r="I254" t="n">
         <v>-38.04226</v>
       </c>
     </row>
@@ -7073,9 +7837,12 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
         <v>-11.69487</v>
       </c>
-      <c r="H255" t="n">
+      <c r="I255" t="n">
         <v>-38.25219</v>
       </c>
     </row>
@@ -7099,9 +7866,12 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
         <v>-11.02549</v>
       </c>
-      <c r="H256" t="n">
+      <c r="I256" t="n">
         <v>-38.45047</v>
       </c>
     </row>
@@ -7125,9 +7895,12 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
         <v>-10.35276</v>
       </c>
-      <c r="H257" t="n">
+      <c r="I257" t="n">
         <v>-38.63703</v>
       </c>
     </row>
@@ -7151,9 +7924,12 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
         <v>-9.676880000000001</v>
       </c>
-      <c r="H258" t="n">
+      <c r="I258" t="n">
         <v>-38.81183</v>
       </c>
     </row>
@@ -7177,9 +7953,12 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
         <v>-8.99804</v>
       </c>
-      <c r="H259" t="n">
+      <c r="I259" t="n">
         <v>-38.9748</v>
       </c>
     </row>
@@ -7203,9 +7982,12 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
         <v>-8.316470000000001</v>
       </c>
-      <c r="H260" t="n">
+      <c r="I260" t="n">
         <v>-39.1259</v>
       </c>
     </row>
@@ -7229,9 +8011,12 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
         <v>-7.63236</v>
       </c>
-      <c r="H261" t="n">
+      <c r="I261" t="n">
         <v>-39.26509</v>
       </c>
     </row>
@@ -7255,9 +8040,12 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
         <v>-6.94593</v>
       </c>
-      <c r="H262" t="n">
+      <c r="I262" t="n">
         <v>-39.39231</v>
       </c>
     </row>
@@ -7281,9 +8069,12 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
         <v>-6.25738</v>
       </c>
-      <c r="H263" t="n">
+      <c r="I263" t="n">
         <v>-39.50753</v>
       </c>
     </row>
@@ -7307,9 +8098,12 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
         <v>-5.56692</v>
       </c>
-      <c r="H264" t="n">
+      <c r="I264" t="n">
         <v>-39.61072</v>
       </c>
     </row>
@@ -7333,9 +8127,12 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
         <v>-4.87477</v>
       </c>
-      <c r="H265" t="n">
+      <c r="I265" t="n">
         <v>-39.70185</v>
       </c>
     </row>
@@ -7359,9 +8156,12 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
         <v>-4.18114</v>
       </c>
-      <c r="H266" t="n">
+      <c r="I266" t="n">
         <v>-39.78088</v>
       </c>
     </row>
@@ -7385,9 +8185,12 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
         <v>-3.48623</v>
       </c>
-      <c r="H267" t="n">
+      <c r="I267" t="n">
         <v>-39.84779</v>
       </c>
     </row>
@@ -7411,9 +8214,12 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
         <v>-2.79026</v>
       </c>
-      <c r="H268" t="n">
+      <c r="I268" t="n">
         <v>-39.90256</v>
       </c>
     </row>
@@ -7437,9 +8243,12 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
         <v>-2.09344</v>
       </c>
-      <c r="H269" t="n">
+      <c r="I269" t="n">
         <v>-39.94518</v>
       </c>
     </row>
@@ -7463,9 +8272,12 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
         <v>-1.39598</v>
       </c>
-      <c r="H270" t="n">
+      <c r="I270" t="n">
         <v>-39.97563</v>
       </c>
     </row>
@@ -7489,9 +8301,12 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="n">
         <v>-0.6981000000000001</v>
       </c>
-      <c r="H271" t="n">
+      <c r="I271" t="n">
         <v>-39.99391</v>
       </c>
     </row>
@@ -7515,9 +8330,12 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
         <v>-0</v>
       </c>
-      <c r="H272" t="n">
+      <c r="I272" t="n">
         <v>-40</v>
       </c>
     </row>
@@ -7541,9 +8359,12 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="n">
         <v>0.6981000000000001</v>
       </c>
-      <c r="H273" t="n">
+      <c r="I273" t="n">
         <v>-39.99391</v>
       </c>
     </row>
@@ -7567,9 +8388,12 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="n">
         <v>1.39598</v>
       </c>
-      <c r="H274" t="n">
+      <c r="I274" t="n">
         <v>-39.97563</v>
       </c>
     </row>
@@ -7593,9 +8417,12 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
         <v>2.09344</v>
       </c>
-      <c r="H275" t="n">
+      <c r="I275" t="n">
         <v>-39.94518</v>
       </c>
     </row>
@@ -7619,9 +8446,12 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
         <v>2.79026</v>
       </c>
-      <c r="H276" t="n">
+      <c r="I276" t="n">
         <v>-39.90256</v>
       </c>
     </row>
@@ -7645,9 +8475,12 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
         <v>3.48623</v>
       </c>
-      <c r="H277" t="n">
+      <c r="I277" t="n">
         <v>-39.84779</v>
       </c>
     </row>
@@ -7671,9 +8504,12 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
         <v>4.18114</v>
       </c>
-      <c r="H278" t="n">
+      <c r="I278" t="n">
         <v>-39.78088</v>
       </c>
     </row>
@@ -7697,9 +8533,12 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="n">
         <v>4.87477</v>
       </c>
-      <c r="H279" t="n">
+      <c r="I279" t="n">
         <v>-39.70185</v>
       </c>
     </row>
@@ -7723,9 +8562,12 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="n">
         <v>5.56692</v>
       </c>
-      <c r="H280" t="n">
+      <c r="I280" t="n">
         <v>-39.61072</v>
       </c>
     </row>
@@ -7749,9 +8591,12 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="n">
         <v>6.25738</v>
       </c>
-      <c r="H281" t="n">
+      <c r="I281" t="n">
         <v>-39.50753</v>
       </c>
     </row>
@@ -7775,9 +8620,12 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
         <v>6.94593</v>
       </c>
-      <c r="H282" t="n">
+      <c r="I282" t="n">
         <v>-39.39231</v>
       </c>
     </row>
@@ -7801,9 +8649,12 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="n">
         <v>7.63236</v>
       </c>
-      <c r="H283" t="n">
+      <c r="I283" t="n">
         <v>-39.26509</v>
       </c>
     </row>
@@ -7827,9 +8678,12 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
         <v>8.316470000000001</v>
       </c>
-      <c r="H284" t="n">
+      <c r="I284" t="n">
         <v>-39.1259</v>
       </c>
     </row>
@@ -7853,9 +8707,12 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
         <v>8.99804</v>
       </c>
-      <c r="H285" t="n">
+      <c r="I285" t="n">
         <v>-38.9748</v>
       </c>
     </row>
@@ -7879,9 +8736,12 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
         <v>9.676880000000001</v>
       </c>
-      <c r="H286" t="n">
+      <c r="I286" t="n">
         <v>-38.81183</v>
       </c>
     </row>
@@ -7905,9 +8765,12 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
         <v>10.35276</v>
       </c>
-      <c r="H287" t="n">
+      <c r="I287" t="n">
         <v>-38.63703</v>
       </c>
     </row>
@@ -7931,9 +8794,12 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="n">
         <v>11.02549</v>
       </c>
-      <c r="H288" t="n">
+      <c r="I288" t="n">
         <v>-38.45047</v>
       </c>
     </row>
@@ -7957,9 +8823,12 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
         <v>11.69487</v>
       </c>
-      <c r="H289" t="n">
+      <c r="I289" t="n">
         <v>-38.25219</v>
       </c>
     </row>
@@ -7983,9 +8852,12 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
         <v>12.36068</v>
       </c>
-      <c r="H290" t="n">
+      <c r="I290" t="n">
         <v>-38.04226</v>
       </c>
     </row>
@@ -8009,9 +8881,12 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" t="n">
         <v>13.02273</v>
       </c>
-      <c r="H291" t="n">
+      <c r="I291" t="n">
         <v>-37.82074</v>
       </c>
     </row>
@@ -8035,9 +8910,12 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" t="n">
         <v>13.68081</v>
       </c>
-      <c r="H292" t="n">
+      <c r="I292" t="n">
         <v>-37.5877</v>
       </c>
     </row>
@@ -8061,9 +8939,12 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" t="n">
         <v>14.33472</v>
       </c>
-      <c r="H293" t="n">
+      <c r="I293" t="n">
         <v>-37.34322</v>
       </c>
     </row>
@@ -8087,9 +8968,12 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="n">
         <v>14.98426</v>
       </c>
-      <c r="H294" t="n">
+      <c r="I294" t="n">
         <v>-37.08735</v>
       </c>
     </row>
@@ -8113,9 +8997,12 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
         <v>15.62925</v>
       </c>
-      <c r="H295" t="n">
+      <c r="I295" t="n">
         <v>-36.82019</v>
       </c>
     </row>
@@ -8139,9 +9026,12 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" t="n">
         <v>16.26947</v>
       </c>
-      <c r="H296" t="n">
+      <c r="I296" t="n">
         <v>-36.54182</v>
       </c>
     </row>
@@ -8165,9 +9055,12 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="n">
         <v>16.90473</v>
       </c>
-      <c r="H297" t="n">
+      <c r="I297" t="n">
         <v>-36.25231</v>
       </c>
     </row>
@@ -8191,9 +9084,12 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
         <v>17.53485</v>
       </c>
-      <c r="H298" t="n">
+      <c r="I298" t="n">
         <v>-35.95176</v>
       </c>
     </row>
@@ -8217,9 +9113,12 @@
         <v>0</v>
       </c>
       <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
         <v>18.15962</v>
       </c>
-      <c r="H299" t="n">
+      <c r="I299" t="n">
         <v>-35.64026</v>
       </c>
     </row>
@@ -8243,9 +9142,12 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
         <v>18.77886</v>
       </c>
-      <c r="H300" t="n">
+      <c r="I300" t="n">
         <v>-35.3179</v>
       </c>
     </row>
@@ -8269,9 +9171,12 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="n">
         <v>19.39238</v>
       </c>
-      <c r="H301" t="n">
+      <c r="I301" t="n">
         <v>-34.98479</v>
       </c>
     </row>
@@ -8295,9 +9200,12 @@
         <v>0</v>
       </c>
       <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="n">
         <v>20</v>
       </c>
-      <c r="H302" t="n">
+      <c r="I302" t="n">
         <v>-34.64102</v>
       </c>
     </row>
@@ -8321,9 +9229,12 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
         <v>20.60152</v>
       </c>
-      <c r="H303" t="n">
+      <c r="I303" t="n">
         <v>-34.28669</v>
       </c>
     </row>
@@ -8347,9 +9258,12 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
         <v>21.19677</v>
       </c>
-      <c r="H304" t="n">
+      <c r="I304" t="n">
         <v>-33.92192</v>
       </c>
     </row>
@@ -8373,9 +9287,12 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
+        <v>0</v>
+      </c>
+      <c r="H305" t="n">
         <v>21.78556</v>
       </c>
-      <c r="H305" t="n">
+      <c r="I305" t="n">
         <v>-33.54682</v>
       </c>
     </row>
@@ -8399,9 +9316,12 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" t="n">
         <v>22.36772</v>
       </c>
-      <c r="H306" t="n">
+      <c r="I306" t="n">
         <v>-33.1615</v>
       </c>
     </row>
@@ -8425,9 +9345,12 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="n">
         <v>22.94306</v>
       </c>
-      <c r="H307" t="n">
+      <c r="I307" t="n">
         <v>-32.76608</v>
       </c>
     </row>
@@ -8451,9 +9374,12 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" t="n">
         <v>23.51141</v>
       </c>
-      <c r="H308" t="n">
+      <c r="I308" t="n">
         <v>-32.36068</v>
       </c>
     </row>
@@ -8477,9 +9403,12 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" t="n">
         <v>24.0726</v>
       </c>
-      <c r="H309" t="n">
+      <c r="I309" t="n">
         <v>-31.94542</v>
       </c>
     </row>
@@ -8503,9 +9432,12 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
         <v>24.62646</v>
       </c>
-      <c r="H310" t="n">
+      <c r="I310" t="n">
         <v>-31.52043</v>
       </c>
     </row>
@@ -8529,9 +9461,12 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" t="n">
         <v>25.17282</v>
       </c>
-      <c r="H311" t="n">
+      <c r="I311" t="n">
         <v>-31.08584</v>
       </c>
     </row>
@@ -8555,9 +9490,12 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="n">
         <v>25.7115</v>
       </c>
-      <c r="H312" t="n">
+      <c r="I312" t="n">
         <v>-30.64178</v>
       </c>
     </row>
@@ -8581,9 +9519,12 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
         <v>26.24236</v>
       </c>
-      <c r="H313" t="n">
+      <c r="I313" t="n">
         <v>-30.18838</v>
       </c>
     </row>
@@ -8607,9 +9548,12 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="n">
         <v>26.76522</v>
       </c>
-      <c r="H314" t="n">
+      <c r="I314" t="n">
         <v>-29.72579</v>
       </c>
     </row>
@@ -8633,9 +9577,12 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="n">
         <v>27.27993</v>
       </c>
-      <c r="H315" t="n">
+      <c r="I315" t="n">
         <v>-29.25415</v>
       </c>
     </row>
@@ -8659,9 +9606,12 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="n">
         <v>27.78633</v>
       </c>
-      <c r="H316" t="n">
+      <c r="I316" t="n">
         <v>-28.77359</v>
       </c>
     </row>
@@ -8685,9 +9635,12 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
         <v>28.28427</v>
       </c>
-      <c r="H317" t="n">
+      <c r="I317" t="n">
         <v>-28.28427</v>
       </c>
     </row>
@@ -8711,9 +9664,12 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="n">
         <v>28.77359</v>
       </c>
-      <c r="H318" t="n">
+      <c r="I318" t="n">
         <v>-27.78633</v>
       </c>
     </row>
@@ -8737,9 +9693,12 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="n">
         <v>29.25415</v>
       </c>
-      <c r="H319" t="n">
+      <c r="I319" t="n">
         <v>-27.27993</v>
       </c>
     </row>
@@ -8763,9 +9722,12 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" t="n">
         <v>29.72579</v>
       </c>
-      <c r="H320" t="n">
+      <c r="I320" t="n">
         <v>-26.76522</v>
       </c>
     </row>
@@ -8789,9 +9751,12 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="n">
         <v>30.18838</v>
       </c>
-      <c r="H321" t="n">
+      <c r="I321" t="n">
         <v>-26.24236</v>
       </c>
     </row>
@@ -8815,9 +9780,12 @@
         <v>0</v>
       </c>
       <c r="G322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" t="n">
         <v>30.64178</v>
       </c>
-      <c r="H322" t="n">
+      <c r="I322" t="n">
         <v>-25.7115</v>
       </c>
     </row>
@@ -8841,9 +9809,12 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
         <v>31.08584</v>
       </c>
-      <c r="H323" t="n">
+      <c r="I323" t="n">
         <v>-25.17282</v>
       </c>
     </row>
@@ -8867,9 +9838,12 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" t="n">
         <v>31.52043</v>
       </c>
-      <c r="H324" t="n">
+      <c r="I324" t="n">
         <v>-24.62646</v>
       </c>
     </row>
@@ -8893,9 +9867,12 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="n">
         <v>31.94542</v>
       </c>
-      <c r="H325" t="n">
+      <c r="I325" t="n">
         <v>-24.0726</v>
       </c>
     </row>
@@ -8919,9 +9896,12 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" t="n">
         <v>32.36068</v>
       </c>
-      <c r="H326" t="n">
+      <c r="I326" t="n">
         <v>-23.51141</v>
       </c>
     </row>
@@ -8945,9 +9925,12 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="n">
         <v>32.76608</v>
       </c>
-      <c r="H327" t="n">
+      <c r="I327" t="n">
         <v>-22.94306</v>
       </c>
     </row>
@@ -8971,9 +9954,12 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" t="n">
         <v>33.1615</v>
       </c>
-      <c r="H328" t="n">
+      <c r="I328" t="n">
         <v>-22.36772</v>
       </c>
     </row>
@@ -8997,9 +9983,12 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" t="n">
         <v>33.54682</v>
       </c>
-      <c r="H329" t="n">
+      <c r="I329" t="n">
         <v>-21.78556</v>
       </c>
     </row>
@@ -9023,9 +10012,12 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
+        <v>0</v>
+      </c>
+      <c r="H330" t="n">
         <v>33.92192</v>
       </c>
-      <c r="H330" t="n">
+      <c r="I330" t="n">
         <v>-21.19677</v>
       </c>
     </row>
@@ -9049,9 +10041,12 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="n">
         <v>34.28669</v>
       </c>
-      <c r="H331" t="n">
+      <c r="I331" t="n">
         <v>-20.60152</v>
       </c>
     </row>
@@ -9075,9 +10070,12 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" t="n">
         <v>34.64102</v>
       </c>
-      <c r="H332" t="n">
+      <c r="I332" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -9101,9 +10099,12 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
+        <v>0</v>
+      </c>
+      <c r="H333" t="n">
         <v>34.98479</v>
       </c>
-      <c r="H333" t="n">
+      <c r="I333" t="n">
         <v>-19.39238</v>
       </c>
     </row>
@@ -9127,9 +10128,12 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="n">
         <v>35.3179</v>
       </c>
-      <c r="H334" t="n">
+      <c r="I334" t="n">
         <v>-18.77886</v>
       </c>
     </row>
@@ -9153,9 +10157,12 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" t="n">
         <v>35.64026</v>
       </c>
-      <c r="H335" t="n">
+      <c r="I335" t="n">
         <v>-18.15962</v>
       </c>
     </row>
@@ -9179,9 +10186,12 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" t="n">
         <v>35.95176</v>
       </c>
-      <c r="H336" t="n">
+      <c r="I336" t="n">
         <v>-17.53485</v>
       </c>
     </row>
@@ -9205,9 +10215,12 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="n">
         <v>36.25231</v>
       </c>
-      <c r="H337" t="n">
+      <c r="I337" t="n">
         <v>-16.90473</v>
       </c>
     </row>
@@ -9231,9 +10244,12 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" t="n">
         <v>36.54182</v>
       </c>
-      <c r="H338" t="n">
+      <c r="I338" t="n">
         <v>-16.26947</v>
       </c>
     </row>
@@ -9257,9 +10273,12 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
+        <v>0</v>
+      </c>
+      <c r="H339" t="n">
         <v>36.82019</v>
       </c>
-      <c r="H339" t="n">
+      <c r="I339" t="n">
         <v>-15.62925</v>
       </c>
     </row>
@@ -9283,9 +10302,12 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
+        <v>0</v>
+      </c>
+      <c r="H340" t="n">
         <v>37.08735</v>
       </c>
-      <c r="H340" t="n">
+      <c r="I340" t="n">
         <v>-14.98426</v>
       </c>
     </row>
@@ -9309,9 +10331,12 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
+        <v>0</v>
+      </c>
+      <c r="H341" t="n">
         <v>37.34322</v>
       </c>
-      <c r="H341" t="n">
+      <c r="I341" t="n">
         <v>-14.33472</v>
       </c>
     </row>
@@ -9335,9 +10360,12 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
+        <v>0</v>
+      </c>
+      <c r="H342" t="n">
         <v>37.5877</v>
       </c>
-      <c r="H342" t="n">
+      <c r="I342" t="n">
         <v>-13.68081</v>
       </c>
     </row>
@@ -9361,9 +10389,12 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
+        <v>0</v>
+      </c>
+      <c r="H343" t="n">
         <v>37.82074</v>
       </c>
-      <c r="H343" t="n">
+      <c r="I343" t="n">
         <v>-13.02273</v>
       </c>
     </row>
@@ -9387,9 +10418,12 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
+        <v>0</v>
+      </c>
+      <c r="H344" t="n">
         <v>38.04226</v>
       </c>
-      <c r="H344" t="n">
+      <c r="I344" t="n">
         <v>-12.36068</v>
       </c>
     </row>
@@ -9413,9 +10447,12 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H345" t="n">
         <v>38.25219</v>
       </c>
-      <c r="H345" t="n">
+      <c r="I345" t="n">
         <v>-11.69487</v>
       </c>
     </row>
@@ -9439,9 +10476,12 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
+        <v>0</v>
+      </c>
+      <c r="H346" t="n">
         <v>38.45047</v>
       </c>
-      <c r="H346" t="n">
+      <c r="I346" t="n">
         <v>-11.02549</v>
       </c>
     </row>
@@ -9465,9 +10505,12 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
+        <v>0</v>
+      </c>
+      <c r="H347" t="n">
         <v>38.63703</v>
       </c>
-      <c r="H347" t="n">
+      <c r="I347" t="n">
         <v>-10.35276</v>
       </c>
     </row>
@@ -9491,9 +10534,12 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
+        <v>0</v>
+      </c>
+      <c r="H348" t="n">
         <v>38.81183</v>
       </c>
-      <c r="H348" t="n">
+      <c r="I348" t="n">
         <v>-9.676880000000001</v>
       </c>
     </row>
@@ -9517,9 +10563,12 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
+        <v>0</v>
+      </c>
+      <c r="H349" t="n">
         <v>38.9748</v>
       </c>
-      <c r="H349" t="n">
+      <c r="I349" t="n">
         <v>-8.99804</v>
       </c>
     </row>
@@ -9543,9 +10592,12 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
+        <v>0</v>
+      </c>
+      <c r="H350" t="n">
         <v>39.1259</v>
       </c>
-      <c r="H350" t="n">
+      <c r="I350" t="n">
         <v>-8.316470000000001</v>
       </c>
     </row>
@@ -9569,9 +10621,12 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
+        <v>0</v>
+      </c>
+      <c r="H351" t="n">
         <v>39.26509</v>
       </c>
-      <c r="H351" t="n">
+      <c r="I351" t="n">
         <v>-7.63236</v>
       </c>
     </row>
@@ -9595,9 +10650,12 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
+        <v>0</v>
+      </c>
+      <c r="H352" t="n">
         <v>39.39231</v>
       </c>
-      <c r="H352" t="n">
+      <c r="I352" t="n">
         <v>-6.94593</v>
       </c>
     </row>
@@ -9621,9 +10679,12 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
+        <v>0</v>
+      </c>
+      <c r="H353" t="n">
         <v>39.50753</v>
       </c>
-      <c r="H353" t="n">
+      <c r="I353" t="n">
         <v>-6.25738</v>
       </c>
     </row>
@@ -9647,9 +10708,12 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
+        <v>0</v>
+      </c>
+      <c r="H354" t="n">
         <v>39.61072</v>
       </c>
-      <c r="H354" t="n">
+      <c r="I354" t="n">
         <v>-5.56692</v>
       </c>
     </row>
@@ -9673,9 +10737,12 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
+        <v>0</v>
+      </c>
+      <c r="H355" t="n">
         <v>39.70185</v>
       </c>
-      <c r="H355" t="n">
+      <c r="I355" t="n">
         <v>-4.87477</v>
       </c>
     </row>
@@ -9699,9 +10766,12 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
+        <v>0</v>
+      </c>
+      <c r="H356" t="n">
         <v>39.78088</v>
       </c>
-      <c r="H356" t="n">
+      <c r="I356" t="n">
         <v>-4.18114</v>
       </c>
     </row>
@@ -9725,9 +10795,12 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" t="n">
         <v>39.84779</v>
       </c>
-      <c r="H357" t="n">
+      <c r="I357" t="n">
         <v>-3.48623</v>
       </c>
     </row>
@@ -9751,9 +10824,12 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
+        <v>0</v>
+      </c>
+      <c r="H358" t="n">
         <v>39.90256</v>
       </c>
-      <c r="H358" t="n">
+      <c r="I358" t="n">
         <v>-2.79026</v>
       </c>
     </row>
@@ -9777,9 +10853,12 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
+        <v>0</v>
+      </c>
+      <c r="H359" t="n">
         <v>39.94518</v>
       </c>
-      <c r="H359" t="n">
+      <c r="I359" t="n">
         <v>-2.09344</v>
       </c>
     </row>
@@ -9803,9 +10882,12 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
+        <v>0</v>
+      </c>
+      <c r="H360" t="n">
         <v>39.97563</v>
       </c>
-      <c r="H360" t="n">
+      <c r="I360" t="n">
         <v>-1.39598</v>
       </c>
     </row>
@@ -9829,9 +10911,12 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
+        <v>0</v>
+      </c>
+      <c r="H361" t="n">
         <v>39.99391</v>
       </c>
-      <c r="H361" t="n">
+      <c r="I361" t="n">
         <v>-0.6981000000000001</v>
       </c>
     </row>
@@ -9855,9 +10940,12 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
+        <v>0</v>
+      </c>
+      <c r="H362" t="n">
         <v>40</v>
       </c>
-      <c r="H362" t="n">
+      <c r="I362" t="n">
         <v>-0</v>
       </c>
     </row>
